--- a/Output_testing/R1_201907/Country/HKD/MN/N. MARIANA ISLANDS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/N. MARIANA ISLANDS_201907_HKD_MN.xlsx
@@ -649,20 +649,26 @@
       <c r="D10" s="8" t="n">
         <v>1.827124</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.175577</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="F10" s="8" t="n">
         <v>2.942841</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.021859</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-90.39052631348503</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>1576.097097000177</v>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="J10" s="9" t="n">
         <v>830.1702127659574</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/N. MARIANA ISLANDS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/N. MARIANA ISLANDS_201907_HKD_MN.xlsx
@@ -816,136 +816,455 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>83.98844099999999</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>33.35691462217664</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>121.021438</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>32.85628253960463</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>185.379525</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>39.39457774133204</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>100.968925</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>42.75245342712727</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-11.99469626646794</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>61.215969</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>24.31258191168011</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>97.04033699999999</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>26.34561927953995</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>120.185523</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>25.54034988063623</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>57.927446</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>24.52774888182111</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-34.15765716045679</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>44.806203</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>17.79526647023862</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>61.678502</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>16.74518433941901</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>82.446517</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>17.52052025949767</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>35.414727</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>14.9953707707785</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-36.69098807368078</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2.260079</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.8976147353702441</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2.627984</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.7134751184625679</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>8.923537</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.896320384218014</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>6.425241</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.720587711620864</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>26.12806278488169</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4.852684</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.927295755810048</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5.81869</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.579724434032688</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>5.647256</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.200085422147909</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>6.373991</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.698887339569361</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>94.22921456507861</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>7.017383</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.787029296116043</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>10.044161</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.726903572979175</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>11.533638</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.450986962186797</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>6.08631</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.577076905771345</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-23.95209550910392</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>11.173489</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.43767159108037</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>13.395577</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.636784275303598</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>9.718529999999999</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.065262523552521</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>4.926874</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.08614631904147</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-34.45228071851291</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2.757046</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.094990536035948</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.154919</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.2454291882042608</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.876479</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.217964185333355</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>380.0564422993478</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1866913813994174</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.08144444080042622</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2.066372</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.4391199750701259</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.345447</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.9931136102845045</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>56.52790504137355</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.6224</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.6869596803191802</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>33.24584</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>13.20394370009255</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>56.268396</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.27638695737824</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>43.515352</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>9.247347663154432</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>11.203226</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>4.743691168333042</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-65.95702126450568</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -977,136 +1296,559 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.8839630000000001</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>68.93600926463878</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.8934879999999999</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>53.42645467211204</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.896613</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>41.0065625098616</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.66028</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>59.22362056269077</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>18.95500903494533</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>4.635397669176079</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.552144</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>25.25228549044574</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>18.98056584802308</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-61.6743096003941</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>30.25824790707287</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>21.48723069655638</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.512028</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>23.41758170894178</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>17.63397922491217</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-52.70946388022938</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.950268182280237</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.326313931189919</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.16183436437398</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>60.00000000000001</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>6.121533346962353</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.8057428282883423</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>6.915036744261139</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.935457905311247</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.134695073458625</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.9402651072873632</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>7.363203118927032</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2.152633687521302</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.93508015570717</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1138,136 +1880,455 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>83.98844099999999</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>33.52766339456572</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>121.021438</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>33.00614168215703</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>185.379525</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>39.57847931902159</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>100.968925</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>42.95523223718953</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-11.99469626646794</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>61.215969</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>24.43703417478805</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>97.04033699999999</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>26.46578296240592</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>120.185523</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>25.65957721868849</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>57.927446</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>24.64408624571625</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-34.15765716045679</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>44.806203</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>17.88635762595689</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>61.678502</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>16.82155995994037</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>82.446517</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>17.6023094676171</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>35.414727</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>15.06649519049219</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-36.69098807368078</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2.260079</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.9022094832921913</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2.627984</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.7167293140446882</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>8.923537</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.905172777883771</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>6.425241</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.733491708809536</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>26.12806278488169</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>4.852684</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.937161278088193</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>5.81869</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.586929635925747</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>5.647256</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.205687655123836</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>6.373991</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.711688409901917</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>94.22921456507861</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>7.017383</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.801295658467429</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>10.044161</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.739341116111974</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>11.533638</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.462428647694947</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>6.08631</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.589300218037669</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-23.95209550910392</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>11.173489</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.460387330381364</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>13.395577</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.653371829677351</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>9.718529999999999</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.074903572097786</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>4.926874</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.09604110248149</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-34.45228071851291</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2.757046</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.100595619477374</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.154919</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.2465748995561678</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.876479</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.223741101238809</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>380.0564422993478</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1876470250658247</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.08181591295493122</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.932524</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.4125933603914071</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2.345447</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.9978240392776241</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>71.88138707126699</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.6224</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.6902179931262643</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>31.963545</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>12.75964840991696</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>54.596026</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.88995833480948</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>41.462689</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.852273081924899</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>10.088333</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>4.291881753728714</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-67.76393279564232</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1299,136 +2360,579 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>36.83283442874158</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>26.29914872577702</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>23.24295387363084</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>5.597615</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>85.23211665939601</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4.631456</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>87.61571380953301</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>43.4060115130967</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>10.7621960841152</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-73.23961263921504</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.681031126527638</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.282016304846562</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.862866887735362</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>136.9220352099052</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.266999822611209</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.821322403540454</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>33.72516387933322</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>12.08069088501041</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.9734583252460887</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>9.506117417713106</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>5.411492248919904</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.496982086232918</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>0.686925</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>10.45946742251041</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
